--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q8_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q8_Initial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\class trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BEF6CB-500A-4D31-8ADD-6AB3BBE08BD4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39ED451-4C21-453D-B3CD-130E6F359052}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{A967B6E2-7F77-4690-A937-D71849A1AE83}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11730" windowHeight="4920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,70 +51,70 @@
     <t xml:space="preserve">   </t>
   </si>
   <si>
-    <t>Fees earned</t>
-  </si>
-  <si>
-    <t>Operating expenses:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Salary expense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Supplies expense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Truck expense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Miscellaneous expense</t>
-  </si>
-  <si>
-    <t>Total operating expenses</t>
-  </si>
-  <si>
-    <t>Net income</t>
-  </si>
-  <si>
-    <t>Retained earnings, June 1, 2019</t>
-  </si>
-  <si>
-    <t>Less cash dividends</t>
-  </si>
-  <si>
-    <t>Increase in retained earnings</t>
-  </si>
-  <si>
-    <t>Retained earnings, June 30, 2019</t>
-  </si>
-  <si>
     <t>Assets</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Accounts receivable</t>
-  </si>
-  <si>
-    <t>Total assets</t>
-  </si>
-  <si>
     <t>Liabilities</t>
   </si>
   <si>
-    <t>Accounts payable</t>
-  </si>
-  <si>
     <t>Stockholders' Equity</t>
   </si>
   <si>
-    <t>Common stock</t>
-  </si>
-  <si>
-    <t>Retained earnings</t>
-  </si>
-  <si>
-    <t>Total liabilities and stockholders' equity</t>
+    <t xml:space="preserve">    Salary expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Supplies expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Truck expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Miscellaneous expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Total operating expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Operating expenses:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Fees earned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Net income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Retained earnings, June 1, 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Less cash dividends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Increase in retained earnings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Retained earnings, June 30, 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Accounts receivable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Total assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Accounts payable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Common stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Retained earnings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Total liabilities and stockholders' equity</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,13 +141,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -307,13 +300,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -347,14 +337,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
@@ -362,32 +346,31 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,11 +693,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80A0C24-7431-430F-9021-A877E1BD9DCC}">
-  <dimension ref="A1:E43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,378 +705,370 @@
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="str">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="C8" s="23"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="C9" s="23"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="C10" s="23"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="C11" s="23"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="C12" s="1"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="C20" s="1"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="E20" s="23"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="C21" s="23"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="C23" s="1"/>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="2"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>20</v>
+      </c>
       <c r="C24" s="1"/>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="E24" s="24"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-    </row>
-    <row r="28" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="24"/>
-    </row>
-    <row r="29" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="str">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-    </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="1"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="2"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="E31" s="1"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="19"/>
-      <c r="E34" s="22"/>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="C32" s="23"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+      <c r="C33" s="23"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="C34" s="16"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="C35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
+      <c r="C37" s="23"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="C38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="C40" s="23"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
+      <c r="C41" s="24"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="18"/>
-      <c r="E42" s="22"/>
-    </row>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="11"/>
+      <c r="C42" s="15"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="10"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q8_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q8_Initial.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\class trial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\class trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39ED451-4C21-453D-B3CD-130E6F359052}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EA20C5-0C23-443F-9161-C8901D921787}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11730" windowHeight="4920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,54 +133,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Open Sans"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Open Sans"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Open Sans"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Open Sans"/>
     </font>
   </fonts>
   <fills count="5">
@@ -209,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -296,81 +284,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,366 +730,426 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="str">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A3" s="25" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" ht="9" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A16" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A17" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A18" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="9" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A27" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A28" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="str">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A29" s="25" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="C30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="C35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="19"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="C38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="19"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="10"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="22"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q8_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q8_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\class trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EA20C5-0C23-443F-9161-C8901D921787}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD6EA2B-9B16-4527-8818-BFEFA0C6E0DE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11730" windowHeight="4920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,12 +141,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Open Sans"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Open Sans"/>
     </font>
     <font>
@@ -197,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -215,26 +209,6 @@
       <top style="thin">
         <color rgb="FFD9D9D9"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FFD9D9D9"/>
       </bottom>
@@ -270,9 +244,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color rgb="FFE1A16C"/>
-      </left>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FFE1A16C"/>
       </right>
@@ -285,9 +266,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color rgb="FFE1A16C"/>
-      </left>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FFE1A16C"/>
       </right>
@@ -298,16 +297,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFE1A16C"/>
+        <color rgb="FFD9D9D9"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -316,96 +322,88 @@
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,9 +412,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFE1A16C"/>
       <color rgb="FFD9D9D9"/>
       <color rgb="FFFEF1E6"/>
+      <color rgb="FFE1A16C"/>
       <color rgb="FFFDC689"/>
     </mruColors>
   </colors>
@@ -728,38 +726,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" ht="21.95" customHeight="1">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-    </row>
-    <row r="2" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" ht="21.95" customHeight="1">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-    </row>
-    <row r="3" spans="1:6" ht="21.95" customHeight="1">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:7" ht="21.95" customHeight="1">
       <c r="A3" s="25" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
@@ -769,400 +771,420 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="11" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="11" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:6" ht="9" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" ht="9" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A16" s="25" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="21.95" customHeight="1">
+      <c r="A16" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A17" s="25" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" ht="21.95" customHeight="1">
+      <c r="A17" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:6" ht="21.95" customHeight="1">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7" ht="21.95" customHeight="1">
       <c r="A18" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="7" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="F21" s="1"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="7" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="7" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" ht="9" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="9" customHeight="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A27" s="25" t="s">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="21.95" customHeight="1">
+      <c r="A27" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-    </row>
-    <row r="28" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A28" s="25" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="1:7" ht="21.95" customHeight="1">
+      <c r="A28" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="26"/>
-    </row>
-    <row r="29" spans="1:6" ht="21.95" customHeight="1">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:7" ht="21.95" customHeight="1">
       <c r="A29" s="25" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-    </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="16" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="7" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="7" t="s">
+      <c r="C32" s="1"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="7" t="s">
+      <c r="C33" s="1"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="19"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="16" t="s">
+      <c r="C34" s="1"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="17"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="7" t="s">
+      <c r="C36" s="1"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B37" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="19"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="16" t="s">
+      <c r="C37" s="1"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B38" s="17"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B39" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="7" t="s">
+      <c r="C39" s="1"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B40" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="7" t="s">
+      <c r="C40" s="1"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B41" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="7" t="s">
+      <c r="C41" s="1"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="B42" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="22"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="32"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="9">
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A3:F3"/>
+  <mergeCells count="14">
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q8_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q8_Initial.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\class trial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\class trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD6EA2B-9B16-4527-8818-BFEFA0C6E0DE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF97EC5F-E14D-4C70-8203-6F9E2338A2D9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11730" windowHeight="4920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,6 +133,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -141,11 +146,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Open Sans"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Open Sans"/>
     </font>
     <font>
@@ -191,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -287,6 +287,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FFE1A16C"/>
       </right>
@@ -296,35 +305,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFD9D9D9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -357,7 +346,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -375,35 +364,29 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,9 +395,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE1A16C"/>
       <color rgb="FFD9D9D9"/>
       <color rgb="FFFEF1E6"/>
-      <color rgb="FFE1A16C"/>
       <color rgb="FFFDC689"/>
     </mruColors>
   </colors>
@@ -734,48 +717,50 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A3" s="25" t="str">
+      <c r="A3" s="29" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="1"/>
       <c r="D4" s="4"/>
       <c r="E4" s="1"/>
@@ -787,8 +772,8 @@
         <v>15</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="7"/>
       <c r="G5" s="5"/>
     </row>
@@ -797,9 +782,9 @@
         <v>5</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="20"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -807,9 +792,9 @@
         <v>14</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="20"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -818,8 +803,8 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="20"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -828,8 +813,8 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="20"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -838,8 +823,8 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="20"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -848,8 +833,8 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -857,8 +842,8 @@
         <v>13</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="11"/>
       <c r="G12" s="9"/>
     </row>
@@ -867,14 +852,14 @@
         <v>16</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="11"/>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -882,7 +867,7 @@
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="9" customHeight="1">
-      <c r="A15" s="22"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
@@ -891,41 +876,41 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
@@ -983,8 +968,8 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -992,7 +977,7 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="9" customHeight="1">
-      <c r="A26" s="22"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1001,42 +986,42 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A29" s="25" t="str">
+      <c r="A29" s="29" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="1"/>
       <c r="D30" s="4"/>
       <c r="E30" s="1"/>
@@ -1160,8 +1145,8 @@
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="32"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
@@ -1169,22 +1154,21 @@
       <c r="G43" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:G29"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q8_Initial.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q8_Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\class trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF97EC5F-E14D-4C70-8203-6F9E2338A2D9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1792993-322A-4023-965C-827C872D7323}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11730" windowHeight="4920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,12 +156,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Open Sans"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Open Sans"/>
     </font>
   </fonts>
@@ -309,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -336,10 +330,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -367,7 +357,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -375,16 +364,17 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -725,42 +715,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A3" s="29" t="str">
+      <c r="A3" s="25" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="1"/>
       <c r="D4" s="4"/>
       <c r="E4" s="1"/>
@@ -844,7 +834,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="4"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -854,20 +844,20 @@
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="9" customHeight="1">
-      <c r="A15" s="20"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2"/>
@@ -876,41 +866,41 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
@@ -942,7 +932,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="11"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="5"/>
@@ -954,7 +944,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -964,20 +954,20 @@
       <c r="C24" s="1"/>
       <c r="D24" s="4"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="9" customHeight="1">
-      <c r="A26" s="21"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -986,42 +976,42 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:7" ht="21.95" customHeight="1">
-      <c r="A29" s="29" t="str">
+      <c r="A29" s="25" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="1"/>
       <c r="D30" s="4"/>
       <c r="E30" s="1"/>
@@ -1029,7 +1019,7 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="1"/>
@@ -1045,7 +1035,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="7"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="15"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -1055,7 +1045,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="7"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="16"/>
+      <c r="F33" s="15"/>
       <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -1063,27 +1053,27 @@
         <v>23</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="16"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="11"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="17"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="15"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="15"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="15"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="15"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -1093,25 +1083,25 @@
       <c r="C37" s="1"/>
       <c r="D37" s="7"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="15"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B38" s="17"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="15"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="15"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="15"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="15"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -1121,7 +1111,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="7"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="15"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -1129,9 +1119,9 @@
         <v>26</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="11"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="15"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -1139,22 +1129,27 @@
         <v>27</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="15"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="11"/>
+      <c r="F42" s="7"/>
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="22"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A17:G17"/>
@@ -1164,11 +1159,6 @@
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
